--- a/iFin-Notes.xlsx
+++ b/iFin-Notes.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://365bsi-my.sharepoint.com/personal/bsi90736_bsi_co_id/Documents/iFin/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://365bsi-my.sharepoint.com/personal/bsi90736_bsi_co_id/Documents/iFin-Notes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B43B5636-7C7E-4680-B569-FA84A5B5597C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="8_{B43B5636-7C7E-4680-B569-FA84A5B5597C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9CE58D43-9831-4A82-B8A2-0E607D031A65}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{FADB4452-2C12-49C6-8EA1-1B53FACC3180}"/>
   </bookViews>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="70">
   <si>
     <r>
       <rPr>
@@ -124,20 +124,344 @@
     <t>https://ifinancing.dipostar.com/ifinancing/ifinsys/main</t>
   </si>
   <si>
-    <t>Link iFin:</t>
-  </si>
-  <si>
     <t>Link List Issue yang Diregistrasi:</t>
   </si>
   <si>
     <t>https://365dipostar.sharepoint.com/sites/PJ_NewOPLSystemImplementation/Lists/OPL%20Implementation%20Issue%20Tracker/AllItems.aspx?env=WebViewList&amp;xsdata=MDV8MDF8fGYwZWUzMjA1NjlmZjRjYmY1OGYxMDhkYjhiZjNiYjJhfDUxYTQzN2ZmNzE5ODQyMTRhNTZlZmFlMzlmMTQzZGEwfDB8MHw2MzgyNTc2NTExMzY0ODU2MTd8VW5rbm93bnxWR1ZoYlhOVFpXTjFjbWwwZVZObGNuWnBZMlY4ZXlKV0lqb2lNQzR3TGpBd01EQWlMQ0pRSWpvaVYybHVNeklpTENKQlRpSTZJazkwYUdWeUlpd2lWMVFpT2pFeGZRPT18MXxMMk5vWVhSekx6RTVPalpsWVRVd01UY3lORFF6T1RRMk5qbGlNR0U1WkdVM01XSXdaREZrTWpFMFFIUm9jbVZoWkM1Mk1pOXRaWE56WVdkbGN5OHhOamt3TVRZNE16RXlOalU1fGQ5YjU2MTI3MzkwMzQ3MjI1OGYxMDhkYjhiZjNiYjJhfGMyMjlmOThhZTVjMTRiNWM5ZmJjZWZkZDdlYzIwMzRj&amp;sdata=anZNanEwcnZVaGZKMm8xcHhXOHREcnJGYVNMUEhGNkYyRXF0Vjh1Q0gzYz0%3D&amp;ovuser=51a437ff%2D7198%2D4214%2Da56e%2Dfae39f143da0%2Csabilla%2Elarrasati%40bsi%2Eco%2Eid&amp;OR=Teams%2DHL&amp;CT=1690260192775&amp;clickparams=eyJBcHBOYW1lIjoiVGVhbXMtRGVza3RvcCIsIkFwcFZlcnNpb24iOiIyNy8yMzA2MDQwMTE3NyIsIkhhc0ZlZGVyYXRlZFVzZXIiOmZhbHNlfQ%3D%3D&amp;isAscending=false&amp;sortField=ID&amp;FilterField1=Phase&amp;FilterValue1=Post%20Go%2DLive&amp;FilterType1=Choice&amp;FilterFields2=Status&amp;FilterValues2=Done%3B%23Hold%3B%23In%20progress%3B%23New&amp;FilterTypes2=Choice</t>
+  </si>
+  <si>
+    <t>Sophos (VPN)</t>
+  </si>
+  <si>
+    <r>
+      <t>C:\Cloud Storages\OneDrive - PT. Berlian Sistem Informasi\INSTALLERS\Sophos\</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>aryo.prasetyo@corp.dipostar.com__ssl_vpn_client</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.exe</t>
+    </r>
+  </si>
+  <si>
+    <t>MAC Address</t>
+  </si>
+  <si>
+    <t>getmac /v</t>
+  </si>
+  <si>
+    <t>Connection Name</t>
+  </si>
+  <si>
+    <t>Ethernet</t>
+  </si>
+  <si>
+    <t>Wi-Fi</t>
+  </si>
+  <si>
+    <t>Bluetooth Netwo</t>
+  </si>
+  <si>
+    <t>Ethernet 2</t>
+  </si>
+  <si>
+    <t>Ethernet 3</t>
+  </si>
+  <si>
+    <t>Network Adapter</t>
+  </si>
+  <si>
+    <t>Realtek PCIe Gb</t>
+  </si>
+  <si>
+    <t>Intel(R) Dual B</t>
+  </si>
+  <si>
+    <t>Bluetooth Devic</t>
+  </si>
+  <si>
+    <t>PANGP Virtual E</t>
+  </si>
+  <si>
+    <t>Sophos SSL VPN</t>
+  </si>
+  <si>
+    <t>Physical Address</t>
+  </si>
+  <si>
+    <t>EC-8E-B5-5B-2E-51</t>
+  </si>
+  <si>
+    <t>E4-A4-71-AB-78-C2</t>
+  </si>
+  <si>
+    <t>E4-A4-71-AB-78-C6</t>
+  </si>
+  <si>
+    <t>02-50-41-00-00-01</t>
+  </si>
+  <si>
+    <t>00-FF-E5-08-C6-3E</t>
+  </si>
+  <si>
+    <t>Transport Name</t>
+  </si>
+  <si>
+    <t>Media disconnected</t>
+  </si>
+  <si>
+    <t>\Device\Tcpip_{AD51F7BD-E374-4F03-94FA-4FD3CA49D31A}</t>
+  </si>
+  <si>
+    <t>\Device\Tcpip_{B30DCB8A-EC04-444D-96D8-A85D307F8875}</t>
+  </si>
+  <si>
+    <t>Username</t>
+  </si>
+  <si>
+    <t>Aryo.Prasetyo</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>Dsfjho.4</t>
+  </si>
+  <si>
+    <t>Connected:</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>20231113</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>MON</t>
+    </r>
+  </si>
+  <si>
+    <t>Link iFin Production:</t>
+  </si>
+  <si>
+    <t>Link iFin QA:</t>
+  </si>
+  <si>
+    <t>https://qaifinancing.dipostar.org/ifinancing/mainmenu/main</t>
+  </si>
+  <si>
+    <t>User ID</t>
+  </si>
+  <si>
+    <t>admin</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>Request aktivasi AD untuk tim iFinancing</t>
+  </si>
+  <si>
+    <t>Khairina Dwi Saktia shared "Issue List - iFinancing Implementation" with you</t>
+  </si>
+  <si>
+    <t>https://365dipostar.sharepoint.com/sites/PJ_NewOPLSystemImplementation/Lists/OPL%20Implementation%20Issue%20Tracker/AllItems.aspx?fromShare=true</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>20231100</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>XXX</t>
+    </r>
+  </si>
+  <si>
+    <t>Knowledge Base - New Operating Lease</t>
+  </si>
+  <si>
+    <t>https://365bsi.sharepoint.com/sites/ISM/Knowledge%20Base/Forms/AllItems.aspx?ct=1699349515200&amp;or=Teams%2DHL&amp;ga=1&amp;id=%2Fsites%2FISM%2FKnowledge%20Base%2FNew%20Operating%20Lease&amp;viewid=6b4ec3fe%2D5197%2D41ee%2D921a%2D14f99ae2e4b3</t>
+  </si>
+  <si>
+    <t>C:\Cloud Storages\OneDrive - PT. Berlian Sistem Informasi\iFin-Notes\User Guide</t>
+  </si>
+  <si>
+    <t>Issue List - iFinancing Implementation</t>
+  </si>
+  <si>
+    <t>Aryo.BudiDwiPrasetyo@bsi.co.id</t>
+  </si>
+  <si>
+    <t>BSI90736@bsi.co.id</t>
+  </si>
+  <si>
+    <t>Email &amp; Account</t>
+  </si>
+  <si>
+    <t>Perhitungan OPL</t>
+  </si>
+  <si>
+    <r>
+      <t>C:\Cloud Storages\OneDrive - PT. Berlian Sistem Informasi\iFin-Notes\</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Perhitungan OPL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.xlsx</t>
+    </r>
+  </si>
+  <si>
+    <t>Perhitungan OPL - Update</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>20231109</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>THU</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>C:\Cloud Storages\OneDrive - PT. Berlian Sistem Informasi\iFin-Notes\</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Perhitungan OPL - Update</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.xlsx</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>20231114</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>TUE</t>
+    </r>
+  </si>
+  <si>
+    <t>User Guide</t>
+  </si>
+  <si>
+    <t>Link Production</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -177,6 +501,27 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -204,15 +549,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -242,13 +595,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
       <xdr:colOff>75714</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>95071</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -293,13 +646,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>65</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>28</xdr:col>
       <xdr:colOff>142286</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>73</xdr:row>
       <xdr:rowOff>171238</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -344,13 +697,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>78</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>43</xdr:col>
       <xdr:colOff>151452</xdr:colOff>
-      <xdr:row>59</xdr:row>
+      <xdr:row>100</xdr:row>
       <xdr:rowOff>94714</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -376,6 +729,1077 @@
         <a:xfrm>
           <a:off x="381000" y="6858000"/>
           <a:ext cx="7580952" cy="4285714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:effectLst>
+          <a:outerShdw blurRad="63500" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="95000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>139</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>161429</xdr:colOff>
+      <xdr:row>148</xdr:row>
+      <xdr:rowOff>47405</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D841BCC5-A16C-340C-49E7-DB7FCFD40464}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="762000" y="12192000"/>
+          <a:ext cx="3971429" cy="1761905"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:effectLst>
+          <a:outerShdw blurRad="63500" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="95000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>194</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>50</xdr:col>
+      <xdr:colOff>103667</xdr:colOff>
+      <xdr:row>207</xdr:row>
+      <xdr:rowOff>171119</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{046AEBAA-FAFF-C728-67F2-3876A7F8E515}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="762000" y="14859000"/>
+          <a:ext cx="8866667" cy="2647619"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:effectLst>
+          <a:outerShdw blurRad="63500" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="95000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>151</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>37786</xdr:colOff>
+      <xdr:row>159</xdr:row>
+      <xdr:rowOff>66476</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7762249F-1266-10E9-1B09-0AEB0FC0DE53}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="762000" y="14478000"/>
+          <a:ext cx="2514286" cy="1590476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:effectLst>
+          <a:outerShdw blurRad="63500" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="95000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>160</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>28333</xdr:colOff>
+      <xdr:row>167</xdr:row>
+      <xdr:rowOff>133167</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{008EB93E-72E4-4272-13E3-65561B8E13EF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="762000" y="16192500"/>
+          <a:ext cx="1933333" cy="1466667"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:effectLst>
+          <a:outerShdw blurRad="63500" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="95000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>181</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>104214</xdr:colOff>
+      <xdr:row>185</xdr:row>
+      <xdr:rowOff>57048</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{71F0EF8A-0296-7535-5404-03E60B78CE7F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="762000" y="18288000"/>
+          <a:ext cx="4485714" cy="819048"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:effectLst>
+          <a:outerShdw blurRad="63500" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="95000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>221</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>161381</xdr:colOff>
+      <xdr:row>231</xdr:row>
+      <xdr:rowOff>47381</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2560E3DA-066B-D0D9-2A86-13CD143C186F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="762000" y="25146000"/>
+          <a:ext cx="4352381" cy="1952381"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:effectLst>
+          <a:outerShdw blurRad="63500" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="95000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>232</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>161667</xdr:colOff>
+      <xdr:row>235</xdr:row>
+      <xdr:rowOff>161833</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Picture 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D96D9FC1-9929-B896-1EE6-43AA8463947E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="762000" y="27241500"/>
+          <a:ext cx="2066667" cy="733333"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:effectLst>
+          <a:outerShdw blurRad="63500" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="95000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>237</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>161024</xdr:colOff>
+      <xdr:row>260</xdr:row>
+      <xdr:rowOff>18500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Picture 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{08A22239-DE20-E6DC-EB3D-D05FDF008D66}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="762000" y="28194000"/>
+          <a:ext cx="7209524" cy="4400000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:effectLst>
+          <a:outerShdw blurRad="63500" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="95000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>261</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>71</xdr:col>
+      <xdr:colOff>74595</xdr:colOff>
+      <xdr:row>317</xdr:row>
+      <xdr:rowOff>17714</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Picture 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{791FD9E7-18A1-7F12-232C-F40A4A81E74C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="762000" y="32766000"/>
+          <a:ext cx="12838095" cy="10685714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:effectLst>
+          <a:outerShdw blurRad="63500" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="95000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>320</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>84929</xdr:colOff>
+      <xdr:row>336</xdr:row>
+      <xdr:rowOff>180571</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Picture 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{970D5433-B9C2-7FFA-CF5D-35DB332E80C7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="762000" y="44005500"/>
+          <a:ext cx="6371429" cy="3228571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:effectLst>
+          <a:outerShdw blurRad="63500" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="95000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>340</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>37309</xdr:colOff>
+      <xdr:row>368</xdr:row>
+      <xdr:rowOff>142190</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="Picture 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C399C4D-5CF1-4249-89A2-E4068FB47E47}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="762000" y="47815500"/>
+          <a:ext cx="6323809" cy="5476190"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:effectLst>
+          <a:outerShdw blurRad="63500" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="95000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>72</xdr:col>
+      <xdr:colOff>36476</xdr:colOff>
+      <xdr:row>133</xdr:row>
+      <xdr:rowOff>56429</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="Picture 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{854FDB21-22CB-06CF-D661-00C008391F91}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="762000" y="11430000"/>
+          <a:ext cx="12990476" cy="5771429"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:effectLst>
+          <a:outerShdw blurRad="63500" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="95000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>371</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>72</xdr:col>
+      <xdr:colOff>55524</xdr:colOff>
+      <xdr:row>401</xdr:row>
+      <xdr:rowOff>65952</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="Picture 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5230823C-F268-2FAA-8058-83328466EEE0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="762000" y="59817000"/>
+          <a:ext cx="13009524" cy="5780952"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:effectLst>
+          <a:outerShdw blurRad="63500" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="95000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>72</xdr:col>
+      <xdr:colOff>55524</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>65952</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="Picture 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0BD7AEA1-6CE7-F69B-BA67-4DD274470E65}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="762000" y="1333500"/>
+          <a:ext cx="13009524" cy="5780952"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:effectLst>
+          <a:outerShdw blurRad="63500" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="95000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>171</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>161452</xdr:colOff>
+      <xdr:row>180</xdr:row>
+      <xdr:rowOff>133119</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="Picture 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9DB1221-0E0C-DB1D-6D09-D96BD429C5B3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="762000" y="33147000"/>
+          <a:ext cx="3780952" cy="1847619"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:effectLst>
+          <a:outerShdw blurRad="63500" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="95000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>405</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>170786</xdr:colOff>
+      <xdr:row>423</xdr:row>
+      <xdr:rowOff>151952</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="Picture 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E3A04CA2-9091-E9AC-A16D-9AE62CD1DCA1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="762000" y="77152500"/>
+          <a:ext cx="5314286" cy="3580952"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:effectLst>
+          <a:outerShdw blurRad="63500" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="95000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>463</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>132786</xdr:colOff>
+      <xdr:row>476</xdr:row>
+      <xdr:rowOff>152071</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="Picture 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6BDF1673-0B2C-B2EE-A20D-85E1FCABCE73}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="762000" y="83058000"/>
+          <a:ext cx="4514286" cy="2628571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:effectLst>
+          <a:outerShdw blurRad="63500" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="95000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>442</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>18357</xdr:colOff>
+      <xdr:row>455</xdr:row>
+      <xdr:rowOff>85405</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="22" name="Picture 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{28670167-87A3-28D3-9FED-0C96CC69FD2D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="762000" y="85534500"/>
+          <a:ext cx="5542857" cy="2561905"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:effectLst>
+          <a:outerShdw blurRad="63500" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="95000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>484</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>66024</xdr:colOff>
+      <xdr:row>493</xdr:row>
+      <xdr:rowOff>85500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="23" name="Picture 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{39C8BA7F-B052-4E4C-AE3A-05ADB1EB0C9C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="762000" y="91440000"/>
+          <a:ext cx="5209524" cy="1800000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:effectLst>
+          <a:outerShdw blurRad="63500" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="95000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>494</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>132452</xdr:colOff>
+      <xdr:row>509</xdr:row>
+      <xdr:rowOff>180595</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="24" name="Picture 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{93B18A6E-8122-3F4E-1C29-5B6A4491D933}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="762000" y="93345000"/>
+          <a:ext cx="7180952" cy="3038095"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:effectLst>
+          <a:outerShdw blurRad="127000" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="FF0000">
+              <a:alpha val="90000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>427</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>142214</xdr:colOff>
+      <xdr:row>433</xdr:row>
+      <xdr:rowOff>190333</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="25" name="Picture 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D29AAF7-1A0D-AB12-4DF9-389ED8D9BB38}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="762000" y="84963000"/>
+          <a:ext cx="5285714" cy="1333333"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -691,91 +2115,407 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52061209-AC23-4309-B9FB-89CA9968B040}">
-  <dimension ref="B2:E36"/>
+  <dimension ref="B2:AH514"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A61" sqref="A61"/>
+    <sheetView tabSelected="1" topLeftCell="A381" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AO404" sqref="AO404"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B4" s="4">
-        <v>0</v>
-      </c>
-      <c r="D4" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B4" s="3">
+        <v>0</v>
+      </c>
+      <c r="D4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D6" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D39" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="43" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B43" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B45" s="3">
+        <v>0</v>
+      </c>
+      <c r="D45" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="E5" t="s">
+    <row r="46" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E46" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="E6" t="s">
+    <row r="47" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E47" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="E7" t="s">
+    <row r="48" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E48" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="E8" t="s">
+    <row r="49" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E49" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="E9" t="s">
+    <row r="50" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E50" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="E10" t="s">
+    <row r="51" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E51" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B20" s="1" t="s">
+    <row r="61" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B61" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B22" s="4">
-        <v>0</v>
-      </c>
-      <c r="D22" t="s">
+    <row r="63" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B63" s="3">
+        <v>0</v>
+      </c>
+      <c r="D63" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="64" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D64" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="76" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B76" s="3">
+        <v>0</v>
+      </c>
+      <c r="D76" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D23" s="3" t="s">
+    <row r="77" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D77" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="102" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D102" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="136" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B136" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B138" s="3">
+        <v>0</v>
+      </c>
+      <c r="D138" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="150" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="D150" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="156" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="S156" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="157" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="S157" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="158" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="S158" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="159" spans="4:19" x14ac:dyDescent="0.25">
+      <c r="S159" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="170" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D170" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="191" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B191" s="3">
+        <v>0</v>
+      </c>
+      <c r="D191" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="193" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D193" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="210" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="D210" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K210" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="R210" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y210" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="211" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="D211" t="s">
+        <v>17</v>
+      </c>
+      <c r="K211" t="s">
+        <v>23</v>
+      </c>
+      <c r="R211" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y211" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="212" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="D212" t="s">
+        <v>18</v>
+      </c>
+      <c r="K212" t="s">
+        <v>24</v>
+      </c>
+      <c r="R212" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y212" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="213" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="D213" t="s">
+        <v>19</v>
+      </c>
+      <c r="K213" t="s">
+        <v>25</v>
+      </c>
+      <c r="R213" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y213" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="214" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="D214" t="s">
+        <v>20</v>
+      </c>
+      <c r="K214" t="s">
+        <v>26</v>
+      </c>
+      <c r="R214" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y214" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="215" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="D215" t="s">
+        <v>21</v>
+      </c>
+      <c r="K215" t="s">
+        <v>27</v>
+      </c>
+      <c r="R215" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y215" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="217" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B217" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="219" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B219" s="3">
+        <v>0</v>
+      </c>
+      <c r="D219" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="220" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="D220" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="233" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q233" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="234" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q234" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="235" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q235" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="236" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q236" s="7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="319" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B319" s="3">
+        <v>0</v>
+      </c>
+      <c r="D319" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="339" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B339" s="3">
+        <v>0</v>
+      </c>
+      <c r="D339" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="370" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D370" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="404" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B404" s="3">
+        <v>0</v>
+      </c>
+      <c r="D404" s="8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="414" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="AH414" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="415" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="AH415" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="426" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B426" s="3">
+        <v>0</v>
+      </c>
+      <c r="D426" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="436" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D436" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B35" s="4">
-        <v>0</v>
-      </c>
-      <c r="D35" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D36" s="3" t="s">
-        <v>12</v>
+    <row r="439" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B439" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="441" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B441" s="3">
+        <v>0</v>
+      </c>
+      <c r="D441" s="8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="457" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D457" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="460" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B460" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="462" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B462" s="3">
+        <v>0</v>
+      </c>
+      <c r="D462" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="479" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D479" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="481" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B481" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="483" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B483" s="3">
+        <v>0</v>
+      </c>
+      <c r="D483" s="8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="514" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B514" s="3">
+        <v>0</v>
+      </c>
+      <c r="D514" s="1" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
